--- a/data-raw/abs/6345.0/634501.xlsx
+++ b/data-raw/abs/6345.0/634501.xlsx
@@ -12,89 +12,89 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2603039T">Data1!$B$1:$B$10,Data1!$B$11:$B$108</definedName>
-    <definedName name="A2603039T_Data">Data1!$B$11:$B$108</definedName>
-    <definedName name="A2603039T_Latest">Data1!$B$108</definedName>
-    <definedName name="A2603040A">Data1!$K$1:$K$10,Data1!$K$11:$K$108</definedName>
-    <definedName name="A2603040A_Data">Data1!$K$11:$K$108</definedName>
-    <definedName name="A2603040A_Latest">Data1!$K$108</definedName>
-    <definedName name="A2603041C">Data1!$T$1:$T$10,Data1!$T$11:$T$108</definedName>
-    <definedName name="A2603041C_Data">Data1!$T$11:$T$108</definedName>
-    <definedName name="A2603041C_Latest">Data1!$T$108</definedName>
-    <definedName name="A2603609J">Data1!$D$1:$D$10,Data1!$D$11:$D$108</definedName>
-    <definedName name="A2603609J_Data">Data1!$D$11:$D$108</definedName>
-    <definedName name="A2603609J_Latest">Data1!$D$108</definedName>
-    <definedName name="A2603610T">Data1!$M$1:$M$10,Data1!$M$11:$M$108</definedName>
-    <definedName name="A2603610T_Data">Data1!$M$11:$M$108</definedName>
-    <definedName name="A2603610T_Latest">Data1!$M$108</definedName>
-    <definedName name="A2603611V">Data1!$V$1:$V$10,Data1!$V$11:$V$108</definedName>
-    <definedName name="A2603611V_Data">Data1!$V$11:$V$108</definedName>
-    <definedName name="A2603611V_Latest">Data1!$V$108</definedName>
-    <definedName name="A2603989W">Data1!$C$1:$C$10,Data1!$C$11:$C$108</definedName>
-    <definedName name="A2603989W_Data">Data1!$C$11:$C$108</definedName>
-    <definedName name="A2603989W_Latest">Data1!$C$108</definedName>
-    <definedName name="A2603990F">Data1!$L$1:$L$10,Data1!$L$11:$L$108</definedName>
-    <definedName name="A2603990F_Data">Data1!$L$11:$L$108</definedName>
-    <definedName name="A2603990F_Latest">Data1!$L$108</definedName>
-    <definedName name="A2603991J">Data1!$U$1:$U$10,Data1!$U$11:$U$108</definedName>
-    <definedName name="A2603991J_Data">Data1!$U$11:$U$108</definedName>
-    <definedName name="A2603991J_Latest">Data1!$U$108</definedName>
-    <definedName name="A2713846W">Data1!$E$1:$E$10,Data1!$E$11:$E$108</definedName>
-    <definedName name="A2713846W_Data">Data1!$E$11:$E$108</definedName>
-    <definedName name="A2713846W_Latest">Data1!$E$108</definedName>
-    <definedName name="A2713848A">Data1!$H$1:$H$10,Data1!$H$11:$H$108</definedName>
-    <definedName name="A2713848A_Data">Data1!$H$11:$H$108</definedName>
-    <definedName name="A2713848A_Latest">Data1!$H$108</definedName>
-    <definedName name="A2713849C">Data1!$G$1:$G$10,Data1!$G$11:$G$108</definedName>
-    <definedName name="A2713849C_Data">Data1!$G$11:$G$108</definedName>
-    <definedName name="A2713849C_Latest">Data1!$G$108</definedName>
-    <definedName name="A2713851R">Data1!$J$1:$J$10,Data1!$J$11:$J$108</definedName>
-    <definedName name="A2713851R_Data">Data1!$J$11:$J$108</definedName>
-    <definedName name="A2713851R_Latest">Data1!$J$108</definedName>
-    <definedName name="A2713852T">Data1!$F$1:$F$10,Data1!$F$11:$F$108</definedName>
-    <definedName name="A2713852T_Data">Data1!$F$11:$F$108</definedName>
-    <definedName name="A2713852T_Latest">Data1!$F$108</definedName>
-    <definedName name="A2713854W">Data1!$I$1:$I$10,Data1!$I$11:$I$108</definedName>
-    <definedName name="A2713854W_Data">Data1!$I$11:$I$108</definedName>
-    <definedName name="A2713854W_Latest">Data1!$I$108</definedName>
-    <definedName name="A83895308K">Data1!$N$1:$N$10,Data1!$N$11:$N$108</definedName>
-    <definedName name="A83895308K_Data">Data1!$N$11:$N$108</definedName>
-    <definedName name="A83895308K_Latest">Data1!$N$108</definedName>
-    <definedName name="A83895309L">Data1!$W$1:$W$10,Data1!$W$11:$W$108</definedName>
-    <definedName name="A83895309L_Data">Data1!$W$11:$W$108</definedName>
-    <definedName name="A83895309L_Latest">Data1!$W$108</definedName>
-    <definedName name="A83895311X">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$108</definedName>
-    <definedName name="A83895311X_Data">Data1!$Q$11:$Q$108</definedName>
-    <definedName name="A83895311X_Latest">Data1!$Q$108</definedName>
-    <definedName name="A83895312A">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$108</definedName>
-    <definedName name="A83895312A_Data">Data1!$Z$11:$Z$108</definedName>
-    <definedName name="A83895312A_Latest">Data1!$Z$108</definedName>
-    <definedName name="A83895332K">Data1!$O$1:$O$10,Data1!$O$11:$O$108</definedName>
-    <definedName name="A83895332K_Data">Data1!$O$11:$O$108</definedName>
-    <definedName name="A83895332K_Latest">Data1!$O$108</definedName>
-    <definedName name="A83895333L">Data1!$X$1:$X$10,Data1!$X$11:$X$108</definedName>
-    <definedName name="A83895333L_Data">Data1!$X$11:$X$108</definedName>
-    <definedName name="A83895333L_Latest">Data1!$X$108</definedName>
-    <definedName name="A83895335T">Data1!$R$1:$R$10,Data1!$R$11:$R$108</definedName>
-    <definedName name="A83895335T_Data">Data1!$R$11:$R$108</definedName>
-    <definedName name="A83895335T_Latest">Data1!$R$108</definedName>
-    <definedName name="A83895336V">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$108</definedName>
-    <definedName name="A83895336V_Data">Data1!$AA$11:$AA$108</definedName>
-    <definedName name="A83895336V_Latest">Data1!$AA$108</definedName>
-    <definedName name="A83895395V">Data1!$P$1:$P$10,Data1!$P$11:$P$108</definedName>
-    <definedName name="A83895395V_Data">Data1!$P$11:$P$108</definedName>
-    <definedName name="A83895395V_Latest">Data1!$P$108</definedName>
-    <definedName name="A83895396W">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$108</definedName>
-    <definedName name="A83895396W_Data">Data1!$Y$11:$Y$108</definedName>
-    <definedName name="A83895396W_Latest">Data1!$Y$108</definedName>
-    <definedName name="A83895398A">Data1!$S$1:$S$10,Data1!$S$11:$S$108</definedName>
-    <definedName name="A83895398A_Data">Data1!$S$11:$S$108</definedName>
-    <definedName name="A83895398A_Latest">Data1!$S$108</definedName>
-    <definedName name="A83895399C">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$108</definedName>
-    <definedName name="A83895399C_Data">Data1!$AB$11:$AB$108</definedName>
-    <definedName name="A83895399C_Latest">Data1!$AB$108</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$108</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$108</definedName>
+    <definedName name="A2603039T">Data1!$B$1:$B$10,Data1!$B$11:$B$109</definedName>
+    <definedName name="A2603039T_Data">Data1!$B$11:$B$109</definedName>
+    <definedName name="A2603039T_Latest">Data1!$B$109</definedName>
+    <definedName name="A2603040A">Data1!$K$1:$K$10,Data1!$K$11:$K$109</definedName>
+    <definedName name="A2603040A_Data">Data1!$K$11:$K$109</definedName>
+    <definedName name="A2603040A_Latest">Data1!$K$109</definedName>
+    <definedName name="A2603041C">Data1!$T$1:$T$10,Data1!$T$11:$T$109</definedName>
+    <definedName name="A2603041C_Data">Data1!$T$11:$T$109</definedName>
+    <definedName name="A2603041C_Latest">Data1!$T$109</definedName>
+    <definedName name="A2603609J">Data1!$D$1:$D$10,Data1!$D$11:$D$109</definedName>
+    <definedName name="A2603609J_Data">Data1!$D$11:$D$109</definedName>
+    <definedName name="A2603609J_Latest">Data1!$D$109</definedName>
+    <definedName name="A2603610T">Data1!$M$1:$M$10,Data1!$M$11:$M$109</definedName>
+    <definedName name="A2603610T_Data">Data1!$M$11:$M$109</definedName>
+    <definedName name="A2603610T_Latest">Data1!$M$109</definedName>
+    <definedName name="A2603611V">Data1!$V$1:$V$10,Data1!$V$11:$V$109</definedName>
+    <definedName name="A2603611V_Data">Data1!$V$11:$V$109</definedName>
+    <definedName name="A2603611V_Latest">Data1!$V$109</definedName>
+    <definedName name="A2603989W">Data1!$C$1:$C$10,Data1!$C$11:$C$109</definedName>
+    <definedName name="A2603989W_Data">Data1!$C$11:$C$109</definedName>
+    <definedName name="A2603989W_Latest">Data1!$C$109</definedName>
+    <definedName name="A2603990F">Data1!$L$1:$L$10,Data1!$L$11:$L$109</definedName>
+    <definedName name="A2603990F_Data">Data1!$L$11:$L$109</definedName>
+    <definedName name="A2603990F_Latest">Data1!$L$109</definedName>
+    <definedName name="A2603991J">Data1!$U$1:$U$10,Data1!$U$11:$U$109</definedName>
+    <definedName name="A2603991J_Data">Data1!$U$11:$U$109</definedName>
+    <definedName name="A2603991J_Latest">Data1!$U$109</definedName>
+    <definedName name="A2713846W">Data1!$E$1:$E$10,Data1!$E$11:$E$109</definedName>
+    <definedName name="A2713846W_Data">Data1!$E$11:$E$109</definedName>
+    <definedName name="A2713846W_Latest">Data1!$E$109</definedName>
+    <definedName name="A2713848A">Data1!$H$1:$H$10,Data1!$H$11:$H$109</definedName>
+    <definedName name="A2713848A_Data">Data1!$H$11:$H$109</definedName>
+    <definedName name="A2713848A_Latest">Data1!$H$109</definedName>
+    <definedName name="A2713849C">Data1!$G$1:$G$10,Data1!$G$11:$G$109</definedName>
+    <definedName name="A2713849C_Data">Data1!$G$11:$G$109</definedName>
+    <definedName name="A2713849C_Latest">Data1!$G$109</definedName>
+    <definedName name="A2713851R">Data1!$J$1:$J$10,Data1!$J$11:$J$109</definedName>
+    <definedName name="A2713851R_Data">Data1!$J$11:$J$109</definedName>
+    <definedName name="A2713851R_Latest">Data1!$J$109</definedName>
+    <definedName name="A2713852T">Data1!$F$1:$F$10,Data1!$F$11:$F$109</definedName>
+    <definedName name="A2713852T_Data">Data1!$F$11:$F$109</definedName>
+    <definedName name="A2713852T_Latest">Data1!$F$109</definedName>
+    <definedName name="A2713854W">Data1!$I$1:$I$10,Data1!$I$11:$I$109</definedName>
+    <definedName name="A2713854W_Data">Data1!$I$11:$I$109</definedName>
+    <definedName name="A2713854W_Latest">Data1!$I$109</definedName>
+    <definedName name="A83895308K">Data1!$N$1:$N$10,Data1!$N$11:$N$109</definedName>
+    <definedName name="A83895308K_Data">Data1!$N$11:$N$109</definedName>
+    <definedName name="A83895308K_Latest">Data1!$N$109</definedName>
+    <definedName name="A83895309L">Data1!$W$1:$W$10,Data1!$W$11:$W$109</definedName>
+    <definedName name="A83895309L_Data">Data1!$W$11:$W$109</definedName>
+    <definedName name="A83895309L_Latest">Data1!$W$109</definedName>
+    <definedName name="A83895311X">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$109</definedName>
+    <definedName name="A83895311X_Data">Data1!$Q$11:$Q$109</definedName>
+    <definedName name="A83895311X_Latest">Data1!$Q$109</definedName>
+    <definedName name="A83895312A">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$109</definedName>
+    <definedName name="A83895312A_Data">Data1!$Z$11:$Z$109</definedName>
+    <definedName name="A83895312A_Latest">Data1!$Z$109</definedName>
+    <definedName name="A83895332K">Data1!$O$1:$O$10,Data1!$O$11:$O$109</definedName>
+    <definedName name="A83895332K_Data">Data1!$O$11:$O$109</definedName>
+    <definedName name="A83895332K_Latest">Data1!$O$109</definedName>
+    <definedName name="A83895333L">Data1!$X$1:$X$10,Data1!$X$11:$X$109</definedName>
+    <definedName name="A83895333L_Data">Data1!$X$11:$X$109</definedName>
+    <definedName name="A83895333L_Latest">Data1!$X$109</definedName>
+    <definedName name="A83895335T">Data1!$R$1:$R$10,Data1!$R$11:$R$109</definedName>
+    <definedName name="A83895335T_Data">Data1!$R$11:$R$109</definedName>
+    <definedName name="A83895335T_Latest">Data1!$R$109</definedName>
+    <definedName name="A83895336V">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$109</definedName>
+    <definedName name="A83895336V_Data">Data1!$AA$11:$AA$109</definedName>
+    <definedName name="A83895336V_Latest">Data1!$AA$109</definedName>
+    <definedName name="A83895395V">Data1!$P$1:$P$10,Data1!$P$11:$P$109</definedName>
+    <definedName name="A83895395V_Data">Data1!$P$11:$P$109</definedName>
+    <definedName name="A83895395V_Latest">Data1!$P$109</definedName>
+    <definedName name="A83895396W">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$109</definedName>
+    <definedName name="A83895396W_Data">Data1!$Y$11:$Y$109</definedName>
+    <definedName name="A83895396W_Latest">Data1!$Y$109</definedName>
+    <definedName name="A83895398A">Data1!$S$1:$S$10,Data1!$S$11:$S$109</definedName>
+    <definedName name="A83895398A_Data">Data1!$S$11:$S$109</definedName>
+    <definedName name="A83895398A_Latest">Data1!$S$109</definedName>
+    <definedName name="A83895399C">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$109</definedName>
+    <definedName name="A83895399C_Data">Data1!$AB$11:$AB$109</definedName>
+    <definedName name="A83895399C_Latest">Data1!$AB$109</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$109</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$109</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1770,6 +1770,123 @@
       </text>
     </comment>
     <comment ref="AB108" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H109" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I109" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J109" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q109" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R109" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S109" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z109" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA109" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB109" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2699,10 +2816,10 @@
         <v>35674</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>24</v>
@@ -2731,10 +2848,10 @@
         <v>35674</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>24</v>
@@ -2763,10 +2880,10 @@
         <v>35674</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>24</v>
@@ -2795,10 +2912,10 @@
         <v>35674</v>
       </c>
       <c r="G15" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>24</v>
@@ -2827,10 +2944,10 @@
         <v>35674</v>
       </c>
       <c r="G16" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>24</v>
@@ -2859,10 +2976,10 @@
         <v>35674</v>
       </c>
       <c r="G17" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>24</v>
@@ -2891,10 +3008,10 @@
         <v>35674</v>
       </c>
       <c r="G18" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>24</v>
@@ -2923,10 +3040,10 @@
         <v>35674</v>
       </c>
       <c r="G19" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>24</v>
@@ -2955,10 +3072,10 @@
         <v>35674</v>
       </c>
       <c r="G20" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>24</v>
@@ -2987,10 +3104,10 @@
         <v>35674</v>
       </c>
       <c r="G21" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>39</v>
@@ -3019,10 +3136,10 @@
         <v>35674</v>
       </c>
       <c r="G22" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H22" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>39</v>
@@ -3051,10 +3168,10 @@
         <v>35674</v>
       </c>
       <c r="G23" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H23" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>39</v>
@@ -3083,10 +3200,10 @@
         <v>35674</v>
       </c>
       <c r="G24" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H24" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>39</v>
@@ -3115,10 +3232,10 @@
         <v>35674</v>
       </c>
       <c r="G25" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H25" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>39</v>
@@ -3147,10 +3264,10 @@
         <v>35674</v>
       </c>
       <c r="G26" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H26" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>39</v>
@@ -3179,10 +3296,10 @@
         <v>35674</v>
       </c>
       <c r="G27" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H27" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>39</v>
@@ -3211,10 +3328,10 @@
         <v>35674</v>
       </c>
       <c r="G28" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H28" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>39</v>
@@ -3243,10 +3360,10 @@
         <v>35674</v>
       </c>
       <c r="G29" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H29" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>39</v>
@@ -3275,10 +3392,10 @@
         <v>35674</v>
       </c>
       <c r="G30" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H30" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>39</v>
@@ -3307,10 +3424,10 @@
         <v>35674</v>
       </c>
       <c r="G31" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H31" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>39</v>
@@ -3339,10 +3456,10 @@
         <v>35674</v>
       </c>
       <c r="G32" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H32" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>39</v>
@@ -3371,10 +3488,10 @@
         <v>35674</v>
       </c>
       <c r="G33" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H33" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>39</v>
@@ -3403,10 +3520,10 @@
         <v>35674</v>
       </c>
       <c r="G34" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H34" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>39</v>
@@ -3435,10 +3552,10 @@
         <v>35674</v>
       </c>
       <c r="G35" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H35" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>39</v>
@@ -3467,10 +3584,10 @@
         <v>35674</v>
       </c>
       <c r="G36" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H36" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>39</v>
@@ -3499,10 +3616,10 @@
         <v>35674</v>
       </c>
       <c r="G37" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H37" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>39</v>
@@ -3531,10 +3648,10 @@
         <v>35674</v>
       </c>
       <c r="G38" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H38" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>39</v>
@@ -3596,7 +3713,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB108"/>
+  <dimension ref="A1:AB109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -4214,85 +4331,85 @@
         <v>21</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="P8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Q8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="R8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="S8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="T8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="U8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="V8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="W8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="X8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Y8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Z8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
@@ -4300,85 +4417,85 @@
         <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AB9" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
@@ -12678,6 +12795,74 @@
       <c r="Z108" s="8"/>
       <c r="AA108" s="8"/>
       <c r="AB108" s="8"/>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A109" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B109" s="8">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="C109" s="8">
+        <v>142.5</v>
+      </c>
+      <c r="D109" s="8">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="E109" s="8">
+        <v>138.4</v>
+      </c>
+      <c r="F109" s="8">
+        <v>142.4</v>
+      </c>
+      <c r="G109" s="8">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L109" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="M109" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="N109" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="O109" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="P109" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="Q109" s="8"/>
+      <c r="R109" s="8"/>
+      <c r="S109" s="8"/>
+      <c r="T109" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="U109" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V109" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="W109" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="X109" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y109" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="Z109" s="8"/>
+      <c r="AA109" s="8"/>
+      <c r="AB109" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-raw/abs/6345.0/634501.xlsx
+++ b/data-raw/abs/6345.0/634501.xlsx
@@ -12,89 +12,89 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2603039T">Data1!$B$1:$B$10,Data1!$B$11:$B$109</definedName>
-    <definedName name="A2603039T_Data">Data1!$B$11:$B$109</definedName>
-    <definedName name="A2603039T_Latest">Data1!$B$109</definedName>
-    <definedName name="A2603040A">Data1!$K$1:$K$10,Data1!$K$11:$K$109</definedName>
-    <definedName name="A2603040A_Data">Data1!$K$11:$K$109</definedName>
-    <definedName name="A2603040A_Latest">Data1!$K$109</definedName>
-    <definedName name="A2603041C">Data1!$T$1:$T$10,Data1!$T$11:$T$109</definedName>
-    <definedName name="A2603041C_Data">Data1!$T$11:$T$109</definedName>
-    <definedName name="A2603041C_Latest">Data1!$T$109</definedName>
-    <definedName name="A2603609J">Data1!$D$1:$D$10,Data1!$D$11:$D$109</definedName>
-    <definedName name="A2603609J_Data">Data1!$D$11:$D$109</definedName>
-    <definedName name="A2603609J_Latest">Data1!$D$109</definedName>
-    <definedName name="A2603610T">Data1!$M$1:$M$10,Data1!$M$11:$M$109</definedName>
-    <definedName name="A2603610T_Data">Data1!$M$11:$M$109</definedName>
-    <definedName name="A2603610T_Latest">Data1!$M$109</definedName>
-    <definedName name="A2603611V">Data1!$V$1:$V$10,Data1!$V$11:$V$109</definedName>
-    <definedName name="A2603611V_Data">Data1!$V$11:$V$109</definedName>
-    <definedName name="A2603611V_Latest">Data1!$V$109</definedName>
-    <definedName name="A2603989W">Data1!$C$1:$C$10,Data1!$C$11:$C$109</definedName>
-    <definedName name="A2603989W_Data">Data1!$C$11:$C$109</definedName>
-    <definedName name="A2603989W_Latest">Data1!$C$109</definedName>
-    <definedName name="A2603990F">Data1!$L$1:$L$10,Data1!$L$11:$L$109</definedName>
-    <definedName name="A2603990F_Data">Data1!$L$11:$L$109</definedName>
-    <definedName name="A2603990F_Latest">Data1!$L$109</definedName>
-    <definedName name="A2603991J">Data1!$U$1:$U$10,Data1!$U$11:$U$109</definedName>
-    <definedName name="A2603991J_Data">Data1!$U$11:$U$109</definedName>
-    <definedName name="A2603991J_Latest">Data1!$U$109</definedName>
-    <definedName name="A2713846W">Data1!$E$1:$E$10,Data1!$E$11:$E$109</definedName>
-    <definedName name="A2713846W_Data">Data1!$E$11:$E$109</definedName>
-    <definedName name="A2713846W_Latest">Data1!$E$109</definedName>
-    <definedName name="A2713848A">Data1!$H$1:$H$10,Data1!$H$11:$H$109</definedName>
-    <definedName name="A2713848A_Data">Data1!$H$11:$H$109</definedName>
-    <definedName name="A2713848A_Latest">Data1!$H$109</definedName>
-    <definedName name="A2713849C">Data1!$G$1:$G$10,Data1!$G$11:$G$109</definedName>
-    <definedName name="A2713849C_Data">Data1!$G$11:$G$109</definedName>
-    <definedName name="A2713849C_Latest">Data1!$G$109</definedName>
-    <definedName name="A2713851R">Data1!$J$1:$J$10,Data1!$J$11:$J$109</definedName>
-    <definedName name="A2713851R_Data">Data1!$J$11:$J$109</definedName>
-    <definedName name="A2713851R_Latest">Data1!$J$109</definedName>
-    <definedName name="A2713852T">Data1!$F$1:$F$10,Data1!$F$11:$F$109</definedName>
-    <definedName name="A2713852T_Data">Data1!$F$11:$F$109</definedName>
-    <definedName name="A2713852T_Latest">Data1!$F$109</definedName>
-    <definedName name="A2713854W">Data1!$I$1:$I$10,Data1!$I$11:$I$109</definedName>
-    <definedName name="A2713854W_Data">Data1!$I$11:$I$109</definedName>
-    <definedName name="A2713854W_Latest">Data1!$I$109</definedName>
-    <definedName name="A83895308K">Data1!$N$1:$N$10,Data1!$N$11:$N$109</definedName>
-    <definedName name="A83895308K_Data">Data1!$N$11:$N$109</definedName>
-    <definedName name="A83895308K_Latest">Data1!$N$109</definedName>
-    <definedName name="A83895309L">Data1!$W$1:$W$10,Data1!$W$11:$W$109</definedName>
-    <definedName name="A83895309L_Data">Data1!$W$11:$W$109</definedName>
-    <definedName name="A83895309L_Latest">Data1!$W$109</definedName>
-    <definedName name="A83895311X">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$109</definedName>
-    <definedName name="A83895311X_Data">Data1!$Q$11:$Q$109</definedName>
-    <definedName name="A83895311X_Latest">Data1!$Q$109</definedName>
-    <definedName name="A83895312A">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$109</definedName>
-    <definedName name="A83895312A_Data">Data1!$Z$11:$Z$109</definedName>
-    <definedName name="A83895312A_Latest">Data1!$Z$109</definedName>
-    <definedName name="A83895332K">Data1!$O$1:$O$10,Data1!$O$11:$O$109</definedName>
-    <definedName name="A83895332K_Data">Data1!$O$11:$O$109</definedName>
-    <definedName name="A83895332K_Latest">Data1!$O$109</definedName>
-    <definedName name="A83895333L">Data1!$X$1:$X$10,Data1!$X$11:$X$109</definedName>
-    <definedName name="A83895333L_Data">Data1!$X$11:$X$109</definedName>
-    <definedName name="A83895333L_Latest">Data1!$X$109</definedName>
-    <definedName name="A83895335T">Data1!$R$1:$R$10,Data1!$R$11:$R$109</definedName>
-    <definedName name="A83895335T_Data">Data1!$R$11:$R$109</definedName>
-    <definedName name="A83895335T_Latest">Data1!$R$109</definedName>
-    <definedName name="A83895336V">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$109</definedName>
-    <definedName name="A83895336V_Data">Data1!$AA$11:$AA$109</definedName>
-    <definedName name="A83895336V_Latest">Data1!$AA$109</definedName>
-    <definedName name="A83895395V">Data1!$P$1:$P$10,Data1!$P$11:$P$109</definedName>
-    <definedName name="A83895395V_Data">Data1!$P$11:$P$109</definedName>
-    <definedName name="A83895395V_Latest">Data1!$P$109</definedName>
-    <definedName name="A83895396W">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$109</definedName>
-    <definedName name="A83895396W_Data">Data1!$Y$11:$Y$109</definedName>
-    <definedName name="A83895396W_Latest">Data1!$Y$109</definedName>
-    <definedName name="A83895398A">Data1!$S$1:$S$10,Data1!$S$11:$S$109</definedName>
-    <definedName name="A83895398A_Data">Data1!$S$11:$S$109</definedName>
-    <definedName name="A83895398A_Latest">Data1!$S$109</definedName>
-    <definedName name="A83895399C">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$109</definedName>
-    <definedName name="A83895399C_Data">Data1!$AB$11:$AB$109</definedName>
-    <definedName name="A83895399C_Latest">Data1!$AB$109</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$109</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$109</definedName>
+    <definedName name="A2603039T">Data1!$B$1:$B$10,Data1!$B$11:$B$110</definedName>
+    <definedName name="A2603039T_Data">Data1!$B$11:$B$110</definedName>
+    <definedName name="A2603039T_Latest">Data1!$B$110</definedName>
+    <definedName name="A2603040A">Data1!$K$1:$K$10,Data1!$K$11:$K$110</definedName>
+    <definedName name="A2603040A_Data">Data1!$K$11:$K$110</definedName>
+    <definedName name="A2603040A_Latest">Data1!$K$110</definedName>
+    <definedName name="A2603041C">Data1!$T$1:$T$10,Data1!$T$11:$T$110</definedName>
+    <definedName name="A2603041C_Data">Data1!$T$11:$T$110</definedName>
+    <definedName name="A2603041C_Latest">Data1!$T$110</definedName>
+    <definedName name="A2603609J">Data1!$D$1:$D$10,Data1!$D$11:$D$110</definedName>
+    <definedName name="A2603609J_Data">Data1!$D$11:$D$110</definedName>
+    <definedName name="A2603609J_Latest">Data1!$D$110</definedName>
+    <definedName name="A2603610T">Data1!$M$1:$M$10,Data1!$M$11:$M$110</definedName>
+    <definedName name="A2603610T_Data">Data1!$M$11:$M$110</definedName>
+    <definedName name="A2603610T_Latest">Data1!$M$110</definedName>
+    <definedName name="A2603611V">Data1!$V$1:$V$10,Data1!$V$11:$V$110</definedName>
+    <definedName name="A2603611V_Data">Data1!$V$11:$V$110</definedName>
+    <definedName name="A2603611V_Latest">Data1!$V$110</definedName>
+    <definedName name="A2603989W">Data1!$C$1:$C$10,Data1!$C$11:$C$110</definedName>
+    <definedName name="A2603989W_Data">Data1!$C$11:$C$110</definedName>
+    <definedName name="A2603989W_Latest">Data1!$C$110</definedName>
+    <definedName name="A2603990F">Data1!$L$1:$L$10,Data1!$L$11:$L$110</definedName>
+    <definedName name="A2603990F_Data">Data1!$L$11:$L$110</definedName>
+    <definedName name="A2603990F_Latest">Data1!$L$110</definedName>
+    <definedName name="A2603991J">Data1!$U$1:$U$10,Data1!$U$11:$U$110</definedName>
+    <definedName name="A2603991J_Data">Data1!$U$11:$U$110</definedName>
+    <definedName name="A2603991J_Latest">Data1!$U$110</definedName>
+    <definedName name="A2713846W">Data1!$E$1:$E$10,Data1!$E$11:$E$110</definedName>
+    <definedName name="A2713846W_Data">Data1!$E$11:$E$110</definedName>
+    <definedName name="A2713846W_Latest">Data1!$E$110</definedName>
+    <definedName name="A2713848A">Data1!$H$1:$H$10,Data1!$H$11:$H$110</definedName>
+    <definedName name="A2713848A_Data">Data1!$H$11:$H$110</definedName>
+    <definedName name="A2713848A_Latest">Data1!$H$110</definedName>
+    <definedName name="A2713849C">Data1!$G$1:$G$10,Data1!$G$11:$G$110</definedName>
+    <definedName name="A2713849C_Data">Data1!$G$11:$G$110</definedName>
+    <definedName name="A2713849C_Latest">Data1!$G$110</definedName>
+    <definedName name="A2713851R">Data1!$J$1:$J$10,Data1!$J$11:$J$110</definedName>
+    <definedName name="A2713851R_Data">Data1!$J$11:$J$110</definedName>
+    <definedName name="A2713851R_Latest">Data1!$J$110</definedName>
+    <definedName name="A2713852T">Data1!$F$1:$F$10,Data1!$F$11:$F$110</definedName>
+    <definedName name="A2713852T_Data">Data1!$F$11:$F$110</definedName>
+    <definedName name="A2713852T_Latest">Data1!$F$110</definedName>
+    <definedName name="A2713854W">Data1!$I$1:$I$10,Data1!$I$11:$I$110</definedName>
+    <definedName name="A2713854W_Data">Data1!$I$11:$I$110</definedName>
+    <definedName name="A2713854W_Latest">Data1!$I$110</definedName>
+    <definedName name="A83895308K">Data1!$N$1:$N$10,Data1!$N$11:$N$110</definedName>
+    <definedName name="A83895308K_Data">Data1!$N$11:$N$110</definedName>
+    <definedName name="A83895308K_Latest">Data1!$N$110</definedName>
+    <definedName name="A83895309L">Data1!$W$1:$W$10,Data1!$W$11:$W$110</definedName>
+    <definedName name="A83895309L_Data">Data1!$W$11:$W$110</definedName>
+    <definedName name="A83895309L_Latest">Data1!$W$110</definedName>
+    <definedName name="A83895311X">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$110</definedName>
+    <definedName name="A83895311X_Data">Data1!$Q$11:$Q$110</definedName>
+    <definedName name="A83895311X_Latest">Data1!$Q$110</definedName>
+    <definedName name="A83895312A">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$110</definedName>
+    <definedName name="A83895312A_Data">Data1!$Z$11:$Z$110</definedName>
+    <definedName name="A83895312A_Latest">Data1!$Z$110</definedName>
+    <definedName name="A83895332K">Data1!$O$1:$O$10,Data1!$O$11:$O$110</definedName>
+    <definedName name="A83895332K_Data">Data1!$O$11:$O$110</definedName>
+    <definedName name="A83895332K_Latest">Data1!$O$110</definedName>
+    <definedName name="A83895333L">Data1!$X$1:$X$10,Data1!$X$11:$X$110</definedName>
+    <definedName name="A83895333L_Data">Data1!$X$11:$X$110</definedName>
+    <definedName name="A83895333L_Latest">Data1!$X$110</definedName>
+    <definedName name="A83895335T">Data1!$R$1:$R$10,Data1!$R$11:$R$110</definedName>
+    <definedName name="A83895335T_Data">Data1!$R$11:$R$110</definedName>
+    <definedName name="A83895335T_Latest">Data1!$R$110</definedName>
+    <definedName name="A83895336V">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$110</definedName>
+    <definedName name="A83895336V_Data">Data1!$AA$11:$AA$110</definedName>
+    <definedName name="A83895336V_Latest">Data1!$AA$110</definedName>
+    <definedName name="A83895395V">Data1!$P$1:$P$10,Data1!$P$11:$P$110</definedName>
+    <definedName name="A83895395V_Data">Data1!$P$11:$P$110</definedName>
+    <definedName name="A83895395V_Latest">Data1!$P$110</definedName>
+    <definedName name="A83895396W">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$110</definedName>
+    <definedName name="A83895396W_Data">Data1!$Y$11:$Y$110</definedName>
+    <definedName name="A83895396W_Latest">Data1!$Y$110</definedName>
+    <definedName name="A83895398A">Data1!$S$1:$S$10,Data1!$S$11:$S$110</definedName>
+    <definedName name="A83895398A_Data">Data1!$S$11:$S$110</definedName>
+    <definedName name="A83895398A_Latest">Data1!$S$110</definedName>
+    <definedName name="A83895399C">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$110</definedName>
+    <definedName name="A83895399C_Data">Data1!$AB$11:$AB$110</definedName>
+    <definedName name="A83895399C_Latest">Data1!$AB$110</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$110</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$110</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -963,942 +963,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="H102" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I102" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J102" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q102" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R102" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S102" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z102" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA102" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB102" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H103" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I103" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J103" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q103" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R103" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S103" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z103" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA103" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB103" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H104" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I104" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J104" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q104" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R104" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S104" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z104" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA104" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB104" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H105" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I105" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J105" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q105" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R105" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S105" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z105" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA105" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB105" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H106" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I106" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J106" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q106" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R106" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S106" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z106" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA106" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB106" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H107" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I107" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J107" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q107" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R107" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S107" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z107" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA107" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB107" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H108" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I108" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J108" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q108" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R108" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S108" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z108" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA108" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB108" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H109" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I109" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J109" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q109" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R109" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S109" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z109" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA109" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB109" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>not available</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -2816,10 +1880,10 @@
         <v>35674</v>
       </c>
       <c r="G12" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H12" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>24</v>
@@ -2848,10 +1912,10 @@
         <v>35674</v>
       </c>
       <c r="G13" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H13" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>24</v>
@@ -2880,10 +1944,10 @@
         <v>35674</v>
       </c>
       <c r="G14" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H14" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>24</v>
@@ -2912,10 +1976,10 @@
         <v>35674</v>
       </c>
       <c r="G15" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H15" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>24</v>
@@ -2944,10 +2008,10 @@
         <v>35674</v>
       </c>
       <c r="G16" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H16" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>24</v>
@@ -2976,10 +2040,10 @@
         <v>35674</v>
       </c>
       <c r="G17" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H17" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>24</v>
@@ -3008,10 +2072,10 @@
         <v>35674</v>
       </c>
       <c r="G18" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H18" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>24</v>
@@ -3040,10 +2104,10 @@
         <v>35674</v>
       </c>
       <c r="G19" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H19" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>24</v>
@@ -3072,10 +2136,10 @@
         <v>35674</v>
       </c>
       <c r="G20" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H20" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>24</v>
@@ -3104,10 +2168,10 @@
         <v>35674</v>
       </c>
       <c r="G21" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H21" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>39</v>
@@ -3136,10 +2200,10 @@
         <v>35674</v>
       </c>
       <c r="G22" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H22" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>39</v>
@@ -3168,10 +2232,10 @@
         <v>35674</v>
       </c>
       <c r="G23" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H23" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>39</v>
@@ -3200,10 +2264,10 @@
         <v>35674</v>
       </c>
       <c r="G24" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H24" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>39</v>
@@ -3232,10 +2296,10 @@
         <v>35674</v>
       </c>
       <c r="G25" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H25" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>39</v>
@@ -3264,10 +2328,10 @@
         <v>35674</v>
       </c>
       <c r="G26" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H26" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>39</v>
@@ -3296,10 +2360,10 @@
         <v>35674</v>
       </c>
       <c r="G27" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H27" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>39</v>
@@ -3328,10 +2392,10 @@
         <v>35674</v>
       </c>
       <c r="G28" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H28" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>39</v>
@@ -3360,10 +2424,10 @@
         <v>35674</v>
       </c>
       <c r="G29" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H29" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>39</v>
@@ -3392,10 +2456,10 @@
         <v>35674</v>
       </c>
       <c r="G30" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H30" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>39</v>
@@ -3424,10 +2488,10 @@
         <v>35674</v>
       </c>
       <c r="G31" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H31" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>39</v>
@@ -3456,10 +2520,10 @@
         <v>35674</v>
       </c>
       <c r="G32" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H32" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>39</v>
@@ -3488,10 +2552,10 @@
         <v>35674</v>
       </c>
       <c r="G33" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H33" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>39</v>
@@ -3520,10 +2584,10 @@
         <v>35674</v>
       </c>
       <c r="G34" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H34" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>39</v>
@@ -3552,10 +2616,10 @@
         <v>35674</v>
       </c>
       <c r="G35" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H35" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>39</v>
@@ -3584,10 +2648,10 @@
         <v>35674</v>
       </c>
       <c r="G36" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H36" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>39</v>
@@ -3616,10 +2680,10 @@
         <v>35674</v>
       </c>
       <c r="G37" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H37" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>39</v>
@@ -3648,10 +2712,10 @@
         <v>35674</v>
       </c>
       <c r="G38" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H38" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>39</v>
@@ -3713,7 +2777,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB109"/>
+  <dimension ref="A1:AB110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -4331,85 +3395,85 @@
         <v>21</v>
       </c>
       <c r="B8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="C8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="D8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="E8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="F8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="G8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="I8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="J8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="K8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="L8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="M8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="N8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="O8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="P8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="Q8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="R8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="S8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="T8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="U8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="V8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="W8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="X8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="Y8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="Z8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AA8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AB8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
@@ -4417,85 +3481,85 @@
         <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="T9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AA9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AB9" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
@@ -6836,7 +5900,7 @@
         <v>82.3</v>
       </c>
       <c r="G38" s="8">
-        <v>83.2</v>
+        <v>83.1</v>
       </c>
       <c r="H38" s="8">
         <v>83.5</v>
@@ -6863,7 +5927,7 @@
         <v>0.9</v>
       </c>
       <c r="P38" s="8">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Q38" s="8">
         <v>0.8</v>
@@ -6890,7 +5954,7 @@
         <v>4</v>
       </c>
       <c r="Y38" s="8">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z38" s="8">
         <v>3.5</v>
@@ -6949,7 +6013,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="P39" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="8">
         <v>0.8</v>
@@ -7180,7 +6244,7 @@
         <v>86.2</v>
       </c>
       <c r="G42" s="8">
-        <v>86.6</v>
+        <v>86.5</v>
       </c>
       <c r="H42" s="8">
         <v>86.7</v>
@@ -7207,7 +6271,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="P42" s="8">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="Q42" s="8">
         <v>1</v>
@@ -7293,7 +6357,7 @@
         <v>1</v>
       </c>
       <c r="P43" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="8">
         <v>0.9</v>
@@ -7352,7 +6416,7 @@
         <v>87.9</v>
       </c>
       <c r="G44" s="8">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="H44" s="8">
         <v>88.4</v>
@@ -7379,7 +6443,7 @@
         <v>0.9</v>
       </c>
       <c r="P44" s="8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Q44" s="8">
         <v>1</v>
@@ -7406,7 +6470,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Y44" s="8">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="Z44" s="8">
         <v>4</v>
@@ -7465,7 +6529,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="P45" s="8">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q45" s="8">
         <v>1</v>
@@ -7578,7 +6642,7 @@
         <v>4.3</v>
       </c>
       <c r="Y46" s="8">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Z46" s="8">
         <v>3.9</v>
@@ -7604,13 +6668,13 @@
         <v>90.9</v>
       </c>
       <c r="E47" s="8">
-        <v>90.9</v>
+        <v>91</v>
       </c>
       <c r="F47" s="8">
         <v>90.8</v>
       </c>
       <c r="G47" s="8">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="H47" s="8">
         <v>91</v>
@@ -7631,13 +6695,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N47" s="8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="O47" s="8">
         <v>1</v>
       </c>
       <c r="P47" s="8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="Q47" s="8">
         <v>1</v>
@@ -7658,13 +6722,13 @@
         <v>3.9</v>
       </c>
       <c r="W47" s="8">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="X47" s="8">
         <v>4.2</v>
       </c>
       <c r="Y47" s="8">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z47" s="8">
         <v>4</v>
@@ -7690,13 +6754,13 @@
         <v>91.8</v>
       </c>
       <c r="E48" s="8">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="F48" s="8">
         <v>91.9</v>
       </c>
       <c r="G48" s="8">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="H48" s="8">
         <v>91.9</v>
@@ -7744,13 +6808,13 @@
         <v>4</v>
       </c>
       <c r="W48" s="8">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="X48" s="8">
         <v>4.5999999999999996</v>
       </c>
       <c r="Y48" s="8">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Z48" s="8">
         <v>4</v>
@@ -7776,7 +6840,7 @@
         <v>92.8</v>
       </c>
       <c r="E49" s="8">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="F49" s="8">
         <v>92.7</v>
@@ -7809,7 +6873,7 @@
         <v>0.9</v>
       </c>
       <c r="P49" s="8">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="8">
         <v>1</v>
@@ -7830,7 +6894,7 @@
         <v>4</v>
       </c>
       <c r="W49" s="8">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="X49" s="8">
         <v>4.3</v>
@@ -7868,7 +6932,7 @@
         <v>93.7</v>
       </c>
       <c r="G50" s="8">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="H50" s="8">
         <v>93.7</v>
@@ -7889,13 +6953,13 @@
         <v>0.8</v>
       </c>
       <c r="N50" s="8">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="O50" s="8">
         <v>1.1000000000000001</v>
       </c>
       <c r="P50" s="8">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="8">
         <v>1</v>
@@ -7922,7 +6986,7 @@
         <v>4.2</v>
       </c>
       <c r="Y50" s="8">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="Z50" s="8">
         <v>4</v>
@@ -7981,7 +7045,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="P51" s="8">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q51" s="8">
         <v>1.1000000000000001</v>
@@ -8002,13 +7066,13 @@
         <v>4.3</v>
       </c>
       <c r="W51" s="8">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X51" s="8">
         <v>4.3</v>
       </c>
       <c r="Y51" s="8">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z51" s="8">
         <v>4.0999999999999996</v>
@@ -8088,13 +7152,13 @@
         <v>4.2</v>
       </c>
       <c r="W52" s="8">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="X52" s="8">
         <v>4</v>
       </c>
       <c r="Y52" s="8">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="Z52" s="8">
         <v>4</v>
@@ -8126,7 +7190,7 @@
         <v>96.4</v>
       </c>
       <c r="G53" s="8">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="H53" s="8">
         <v>96.7</v>
@@ -8153,7 +7217,7 @@
         <v>0.8</v>
       </c>
       <c r="P53" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="8">
         <v>1.2</v>
@@ -8174,13 +7238,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W53" s="8">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X53" s="8">
         <v>4</v>
       </c>
       <c r="Y53" s="8">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Z53" s="8">
         <v>4.2</v>
@@ -8239,7 +7303,7 @@
         <v>0.9</v>
       </c>
       <c r="P54" s="8">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q54" s="8">
         <v>1</v>
@@ -8266,7 +7330,7 @@
         <v>3.8</v>
       </c>
       <c r="Y54" s="8">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z54" s="8">
         <v>4.3</v>
@@ -8298,7 +7362,7 @@
         <v>98.2</v>
       </c>
       <c r="G55" s="8">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="H55" s="8">
         <v>98.8</v>
@@ -8325,7 +7389,7 @@
         <v>0.9</v>
       </c>
       <c r="P55" s="8">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="8">
         <v>1.1000000000000001</v>
@@ -8352,7 +7416,7 @@
         <v>3.7</v>
       </c>
       <c r="Y55" s="8">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z55" s="8">
         <v>4.3</v>
@@ -8411,7 +7475,7 @@
         <v>1.4</v>
       </c>
       <c r="P56" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="8">
         <v>0.9</v>
@@ -8524,7 +7588,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Y57" s="8">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Z57" s="8">
         <v>3.9</v>
@@ -8556,7 +7620,7 @@
         <v>101.6</v>
       </c>
       <c r="G58" s="8">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="H58" s="8">
         <v>101.2</v>
@@ -8583,7 +7647,7 @@
         <v>1</v>
       </c>
       <c r="P58" s="8">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Q58" s="8">
         <v>0.7</v>
@@ -8610,7 +7674,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Y58" s="8">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z58" s="8">
         <v>3.6</v>
@@ -8669,7 +7733,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="P59" s="8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q59" s="8">
         <v>0.4</v>
@@ -8696,7 +7760,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="Y59" s="8">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Z59" s="8">
         <v>2.8</v>
@@ -8954,7 +8018,7 @@
         <v>4</v>
       </c>
       <c r="Y62" s="8">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Z62" s="8">
         <v>2.9</v>
@@ -11477,7 +10541,7 @@
         <v>126.8</v>
       </c>
       <c r="F92" s="8">
-        <v>130.19999999999999</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="G92" s="8">
         <v>127.6</v>
@@ -11504,7 +10568,7 @@
         <v>0.5</v>
       </c>
       <c r="O92" s="8">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="P92" s="8">
         <v>0.6</v>
@@ -11590,7 +10654,7 @@
         <v>0.5</v>
       </c>
       <c r="O93" s="8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P93" s="8">
         <v>0.5</v>
@@ -11875,7 +10939,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="X96" s="8">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y96" s="8">
         <v>2.4</v>
@@ -12260,10 +11324,10 @@
         <v>133.19999999999999</v>
       </c>
       <c r="I101" s="8">
-        <v>137.19999999999999</v>
+        <v>137.30000000000001</v>
       </c>
       <c r="J101" s="8">
-        <v>134.1</v>
+        <v>134</v>
       </c>
       <c r="K101" s="8">
         <v>0.4</v>
@@ -12287,10 +11351,10 @@
         <v>0.5</v>
       </c>
       <c r="R101" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="S101" s="8">
         <v>0.4</v>
-      </c>
-      <c r="S101" s="8">
-        <v>0.5</v>
       </c>
       <c r="T101" s="8">
         <v>2.1</v>
@@ -12342,9 +11406,15 @@
       <c r="G102" s="8">
         <v>134.4</v>
       </c>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
+      <c r="H102" s="8">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="I102" s="8">
+        <v>137.9</v>
+      </c>
+      <c r="J102" s="8">
+        <v>134.4</v>
+      </c>
       <c r="K102" s="8">
         <v>-0.1</v>
       </c>
@@ -12363,9 +11433,15 @@
       <c r="P102" s="8">
         <v>0.2</v>
       </c>
-      <c r="Q102" s="8"/>
-      <c r="R102" s="8"/>
-      <c r="S102" s="8"/>
+      <c r="Q102" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="R102" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="S102" s="8">
+        <v>0.3</v>
+      </c>
       <c r="T102" s="8">
         <v>1.7</v>
       </c>
@@ -12384,9 +11460,15 @@
       <c r="Y102" s="8">
         <v>1.8</v>
       </c>
-      <c r="Z102" s="8"/>
-      <c r="AA102" s="8"/>
-      <c r="AB102" s="8"/>
+      <c r="Z102" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="AA102" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="AB102" s="8">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
@@ -12408,11 +11490,17 @@
         <v>138.4</v>
       </c>
       <c r="G103" s="8">
-        <v>134.5</v>
-      </c>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
+        <v>134.6</v>
+      </c>
+      <c r="H103" s="8">
+        <v>133.9</v>
+      </c>
+      <c r="I103" s="8">
+        <v>138.4</v>
+      </c>
+      <c r="J103" s="8">
+        <v>134.80000000000001</v>
+      </c>
       <c r="K103" s="8">
         <v>0.5</v>
       </c>
@@ -12431,9 +11519,15 @@
       <c r="P103" s="8">
         <v>0.1</v>
       </c>
-      <c r="Q103" s="8"/>
-      <c r="R103" s="8"/>
-      <c r="S103" s="8"/>
+      <c r="Q103" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="R103" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="S103" s="8">
+        <v>0.3</v>
+      </c>
       <c r="T103" s="8">
         <v>1.3</v>
       </c>
@@ -12452,9 +11546,15 @@
       <c r="Y103" s="8">
         <v>1.4</v>
       </c>
-      <c r="Z103" s="8"/>
-      <c r="AA103" s="8"/>
-      <c r="AB103" s="8"/>
+      <c r="Z103" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="AA103" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="AB103" s="8">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
@@ -12478,9 +11578,15 @@
       <c r="G104" s="8">
         <v>135.30000000000001</v>
       </c>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
+      <c r="H104" s="8">
+        <v>134.5</v>
+      </c>
+      <c r="I104" s="8">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="J104" s="8">
+        <v>135.30000000000001</v>
+      </c>
       <c r="K104" s="8">
         <v>0.5</v>
       </c>
@@ -12497,11 +11603,17 @@
         <v>0.2</v>
       </c>
       <c r="P104" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="Q104" s="8"/>
-      <c r="R104" s="8"/>
-      <c r="S104" s="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q104" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="R104" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="S104" s="8">
+        <v>0.4</v>
+      </c>
       <c r="T104" s="8">
         <v>1.4</v>
       </c>
@@ -12520,9 +11632,15 @@
       <c r="Y104" s="8">
         <v>1.4</v>
       </c>
-      <c r="Z104" s="8"/>
-      <c r="AA104" s="8"/>
-      <c r="AB104" s="8"/>
+      <c r="Z104" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AA104" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="AB104" s="8">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
@@ -12538,7 +11656,7 @@
         <v>136.1</v>
       </c>
       <c r="E105" s="8">
-        <v>135.1</v>
+        <v>135.19999999999999</v>
       </c>
       <c r="F105" s="8">
         <v>139.30000000000001</v>
@@ -12546,9 +11664,15 @@
       <c r="G105" s="8">
         <v>136.1</v>
       </c>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
+      <c r="H105" s="8">
+        <v>135.1</v>
+      </c>
+      <c r="I105" s="8">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="J105" s="8">
+        <v>136</v>
+      </c>
       <c r="K105" s="8">
         <v>0.5</v>
       </c>
@@ -12559,7 +11683,7 @@
         <v>0.5</v>
       </c>
       <c r="N105" s="8">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="O105" s="8">
         <v>0.4</v>
@@ -12567,9 +11691,15 @@
       <c r="P105" s="8">
         <v>0.6</v>
       </c>
-      <c r="Q105" s="8"/>
-      <c r="R105" s="8"/>
-      <c r="S105" s="8"/>
+      <c r="Q105" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="R105" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="S105" s="8">
+        <v>0.5</v>
+      </c>
       <c r="T105" s="8">
         <v>1.5</v>
       </c>
@@ -12580,7 +11710,7 @@
         <v>1.5</v>
       </c>
       <c r="W105" s="8">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X105" s="8">
         <v>1.5</v>
@@ -12588,9 +11718,15 @@
       <c r="Y105" s="8">
         <v>1.5</v>
       </c>
-      <c r="Z105" s="8"/>
-      <c r="AA105" s="8"/>
-      <c r="AB105" s="8"/>
+      <c r="Z105" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="AA105" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AB105" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
@@ -12614,9 +11750,15 @@
       <c r="G106" s="8">
         <v>136.69999999999999</v>
       </c>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
+      <c r="H106" s="8">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="I106" s="8">
+        <v>139.9</v>
+      </c>
+      <c r="J106" s="8">
+        <v>136.69999999999999</v>
+      </c>
       <c r="K106" s="8">
         <v>0.3</v>
       </c>
@@ -12627,7 +11769,7 @@
         <v>0.3</v>
       </c>
       <c r="N106" s="8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O106" s="8">
         <v>0.4</v>
@@ -12635,9 +11777,15 @@
       <c r="P106" s="8">
         <v>0.4</v>
       </c>
-      <c r="Q106" s="8"/>
-      <c r="R106" s="8"/>
-      <c r="S106" s="8"/>
+      <c r="Q106" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="R106" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="S106" s="8">
+        <v>0.5</v>
+      </c>
       <c r="T106" s="8">
         <v>1.9</v>
       </c>
@@ -12656,9 +11804,15 @@
       <c r="Y106" s="8">
         <v>1.7</v>
       </c>
-      <c r="Z106" s="8"/>
-      <c r="AA106" s="8"/>
-      <c r="AB106" s="8"/>
+      <c r="Z106" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="AA106" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AB106" s="8">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
@@ -12682,9 +11836,15 @@
       <c r="G107" s="8">
         <v>137.5</v>
       </c>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
+      <c r="H107" s="8">
+        <v>136.6</v>
+      </c>
+      <c r="I107" s="8">
+        <v>140.69999999999999</v>
+      </c>
+      <c r="J107" s="8">
+        <v>137.5</v>
+      </c>
       <c r="K107" s="8">
         <v>1</v>
       </c>
@@ -12703,9 +11863,15 @@
       <c r="P107" s="8">
         <v>0.6</v>
       </c>
-      <c r="Q107" s="8"/>
-      <c r="R107" s="8"/>
-      <c r="S107" s="8"/>
+      <c r="Q107" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="R107" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="S107" s="8">
+        <v>0.6</v>
+      </c>
       <c r="T107" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -12724,9 +11890,15 @@
       <c r="Y107" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Z107" s="8"/>
-      <c r="AA107" s="8"/>
-      <c r="AB107" s="8"/>
+      <c r="Z107" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA107" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="AB107" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
@@ -12750,9 +11922,15 @@
       <c r="G108" s="8">
         <v>138.4</v>
       </c>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
+      <c r="H108" s="8">
+        <v>137.5</v>
+      </c>
+      <c r="I108" s="8">
+        <v>141.6</v>
+      </c>
+      <c r="J108" s="8">
+        <v>138.4</v>
+      </c>
       <c r="K108" s="8">
         <v>0.6</v>
       </c>
@@ -12771,9 +11949,15 @@
       <c r="P108" s="8">
         <v>0.7</v>
       </c>
-      <c r="Q108" s="8"/>
-      <c r="R108" s="8"/>
-      <c r="S108" s="8"/>
+      <c r="Q108" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="R108" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="S108" s="8">
+        <v>0.7</v>
+      </c>
       <c r="T108" s="8">
         <v>2.4</v>
       </c>
@@ -12792,9 +11976,15 @@
       <c r="Y108" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Z108" s="8"/>
-      <c r="AA108" s="8"/>
-      <c r="AB108" s="8"/>
+      <c r="Z108" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA108" s="8">
+        <v>2</v>
+      </c>
+      <c r="AB108" s="8">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
@@ -12818,9 +12008,15 @@
       <c r="G109" s="8">
         <v>139.30000000000001</v>
       </c>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
+      <c r="H109" s="8">
+        <v>138.4</v>
+      </c>
+      <c r="I109" s="8">
+        <v>142.4</v>
+      </c>
+      <c r="J109" s="8">
+        <v>139.30000000000001</v>
+      </c>
       <c r="K109" s="8">
         <v>0.5</v>
       </c>
@@ -12839,9 +12035,15 @@
       <c r="P109" s="8">
         <v>0.7</v>
       </c>
-      <c r="Q109" s="8"/>
-      <c r="R109" s="8"/>
-      <c r="S109" s="8"/>
+      <c r="Q109" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="R109" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="S109" s="8">
+        <v>0.7</v>
+      </c>
       <c r="T109" s="8">
         <v>2.4</v>
       </c>
@@ -12860,9 +12062,101 @@
       <c r="Y109" s="8">
         <v>2.4</v>
       </c>
-      <c r="Z109" s="8"/>
-      <c r="AA109" s="8"/>
-      <c r="AB109" s="8"/>
+      <c r="Z109" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="AA109" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB109" s="8">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A110" s="9">
+        <v>44713</v>
+      </c>
+      <c r="B110" s="8">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="C110" s="8">
+        <v>143.1</v>
+      </c>
+      <c r="D110" s="8">
+        <v>140.1</v>
+      </c>
+      <c r="E110" s="8">
+        <v>139.4</v>
+      </c>
+      <c r="F110" s="8">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="G110" s="8">
+        <v>140.30000000000001</v>
+      </c>
+      <c r="H110" s="8">
+        <v>139.4</v>
+      </c>
+      <c r="I110" s="8">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="J110" s="8">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="K110" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="L110" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="M110" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="N110" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="O110" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="P110" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="Q110" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="R110" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="S110" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="T110" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="U110" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="V110" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="W110" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="X110" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="Y110" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="Z110" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="AA110" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="AB110" s="8">
+        <v>2.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-raw/abs/6345.0/634501.xlsx
+++ b/data-raw/abs/6345.0/634501.xlsx
@@ -12,89 +12,89 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2603039T">Data1!$B$1:$B$10,Data1!$B$11:$B$110</definedName>
-    <definedName name="A2603039T_Data">Data1!$B$11:$B$110</definedName>
-    <definedName name="A2603039T_Latest">Data1!$B$110</definedName>
-    <definedName name="A2603040A">Data1!$K$1:$K$10,Data1!$K$11:$K$110</definedName>
-    <definedName name="A2603040A_Data">Data1!$K$11:$K$110</definedName>
-    <definedName name="A2603040A_Latest">Data1!$K$110</definedName>
-    <definedName name="A2603041C">Data1!$T$1:$T$10,Data1!$T$11:$T$110</definedName>
-    <definedName name="A2603041C_Data">Data1!$T$11:$T$110</definedName>
-    <definedName name="A2603041C_Latest">Data1!$T$110</definedName>
-    <definedName name="A2603609J">Data1!$D$1:$D$10,Data1!$D$11:$D$110</definedName>
-    <definedName name="A2603609J_Data">Data1!$D$11:$D$110</definedName>
-    <definedName name="A2603609J_Latest">Data1!$D$110</definedName>
-    <definedName name="A2603610T">Data1!$M$1:$M$10,Data1!$M$11:$M$110</definedName>
-    <definedName name="A2603610T_Data">Data1!$M$11:$M$110</definedName>
-    <definedName name="A2603610T_Latest">Data1!$M$110</definedName>
-    <definedName name="A2603611V">Data1!$V$1:$V$10,Data1!$V$11:$V$110</definedName>
-    <definedName name="A2603611V_Data">Data1!$V$11:$V$110</definedName>
-    <definedName name="A2603611V_Latest">Data1!$V$110</definedName>
-    <definedName name="A2603989W">Data1!$C$1:$C$10,Data1!$C$11:$C$110</definedName>
-    <definedName name="A2603989W_Data">Data1!$C$11:$C$110</definedName>
-    <definedName name="A2603989W_Latest">Data1!$C$110</definedName>
-    <definedName name="A2603990F">Data1!$L$1:$L$10,Data1!$L$11:$L$110</definedName>
-    <definedName name="A2603990F_Data">Data1!$L$11:$L$110</definedName>
-    <definedName name="A2603990F_Latest">Data1!$L$110</definedName>
-    <definedName name="A2603991J">Data1!$U$1:$U$10,Data1!$U$11:$U$110</definedName>
-    <definedName name="A2603991J_Data">Data1!$U$11:$U$110</definedName>
-    <definedName name="A2603991J_Latest">Data1!$U$110</definedName>
-    <definedName name="A2713846W">Data1!$E$1:$E$10,Data1!$E$11:$E$110</definedName>
-    <definedName name="A2713846W_Data">Data1!$E$11:$E$110</definedName>
-    <definedName name="A2713846W_Latest">Data1!$E$110</definedName>
-    <definedName name="A2713848A">Data1!$H$1:$H$10,Data1!$H$11:$H$110</definedName>
-    <definedName name="A2713848A_Data">Data1!$H$11:$H$110</definedName>
-    <definedName name="A2713848A_Latest">Data1!$H$110</definedName>
-    <definedName name="A2713849C">Data1!$G$1:$G$10,Data1!$G$11:$G$110</definedName>
-    <definedName name="A2713849C_Data">Data1!$G$11:$G$110</definedName>
-    <definedName name="A2713849C_Latest">Data1!$G$110</definedName>
-    <definedName name="A2713851R">Data1!$J$1:$J$10,Data1!$J$11:$J$110</definedName>
-    <definedName name="A2713851R_Data">Data1!$J$11:$J$110</definedName>
-    <definedName name="A2713851R_Latest">Data1!$J$110</definedName>
-    <definedName name="A2713852T">Data1!$F$1:$F$10,Data1!$F$11:$F$110</definedName>
-    <definedName name="A2713852T_Data">Data1!$F$11:$F$110</definedName>
-    <definedName name="A2713852T_Latest">Data1!$F$110</definedName>
-    <definedName name="A2713854W">Data1!$I$1:$I$10,Data1!$I$11:$I$110</definedName>
-    <definedName name="A2713854W_Data">Data1!$I$11:$I$110</definedName>
-    <definedName name="A2713854W_Latest">Data1!$I$110</definedName>
-    <definedName name="A83895308K">Data1!$N$1:$N$10,Data1!$N$11:$N$110</definedName>
-    <definedName name="A83895308K_Data">Data1!$N$11:$N$110</definedName>
-    <definedName name="A83895308K_Latest">Data1!$N$110</definedName>
-    <definedName name="A83895309L">Data1!$W$1:$W$10,Data1!$W$11:$W$110</definedName>
-    <definedName name="A83895309L_Data">Data1!$W$11:$W$110</definedName>
-    <definedName name="A83895309L_Latest">Data1!$W$110</definedName>
-    <definedName name="A83895311X">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$110</definedName>
-    <definedName name="A83895311X_Data">Data1!$Q$11:$Q$110</definedName>
-    <definedName name="A83895311X_Latest">Data1!$Q$110</definedName>
-    <definedName name="A83895312A">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$110</definedName>
-    <definedName name="A83895312A_Data">Data1!$Z$11:$Z$110</definedName>
-    <definedName name="A83895312A_Latest">Data1!$Z$110</definedName>
-    <definedName name="A83895332K">Data1!$O$1:$O$10,Data1!$O$11:$O$110</definedName>
-    <definedName name="A83895332K_Data">Data1!$O$11:$O$110</definedName>
-    <definedName name="A83895332K_Latest">Data1!$O$110</definedName>
-    <definedName name="A83895333L">Data1!$X$1:$X$10,Data1!$X$11:$X$110</definedName>
-    <definedName name="A83895333L_Data">Data1!$X$11:$X$110</definedName>
-    <definedName name="A83895333L_Latest">Data1!$X$110</definedName>
-    <definedName name="A83895335T">Data1!$R$1:$R$10,Data1!$R$11:$R$110</definedName>
-    <definedName name="A83895335T_Data">Data1!$R$11:$R$110</definedName>
-    <definedName name="A83895335T_Latest">Data1!$R$110</definedName>
-    <definedName name="A83895336V">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$110</definedName>
-    <definedName name="A83895336V_Data">Data1!$AA$11:$AA$110</definedName>
-    <definedName name="A83895336V_Latest">Data1!$AA$110</definedName>
-    <definedName name="A83895395V">Data1!$P$1:$P$10,Data1!$P$11:$P$110</definedName>
-    <definedName name="A83895395V_Data">Data1!$P$11:$P$110</definedName>
-    <definedName name="A83895395V_Latest">Data1!$P$110</definedName>
-    <definedName name="A83895396W">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$110</definedName>
-    <definedName name="A83895396W_Data">Data1!$Y$11:$Y$110</definedName>
-    <definedName name="A83895396W_Latest">Data1!$Y$110</definedName>
-    <definedName name="A83895398A">Data1!$S$1:$S$10,Data1!$S$11:$S$110</definedName>
-    <definedName name="A83895398A_Data">Data1!$S$11:$S$110</definedName>
-    <definedName name="A83895398A_Latest">Data1!$S$110</definedName>
-    <definedName name="A83895399C">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$110</definedName>
-    <definedName name="A83895399C_Data">Data1!$AB$11:$AB$110</definedName>
-    <definedName name="A83895399C_Latest">Data1!$AB$110</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$110</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$110</definedName>
+    <definedName name="A2603039T">Data1!$B$1:$B$10,Data1!$B$11:$B$111</definedName>
+    <definedName name="A2603039T_Data">Data1!$B$11:$B$111</definedName>
+    <definedName name="A2603039T_Latest">Data1!$B$111</definedName>
+    <definedName name="A2603040A">Data1!$K$1:$K$10,Data1!$K$11:$K$111</definedName>
+    <definedName name="A2603040A_Data">Data1!$K$11:$K$111</definedName>
+    <definedName name="A2603040A_Latest">Data1!$K$111</definedName>
+    <definedName name="A2603041C">Data1!$T$1:$T$10,Data1!$T$11:$T$111</definedName>
+    <definedName name="A2603041C_Data">Data1!$T$11:$T$111</definedName>
+    <definedName name="A2603041C_Latest">Data1!$T$111</definedName>
+    <definedName name="A2603609J">Data1!$D$1:$D$10,Data1!$D$11:$D$111</definedName>
+    <definedName name="A2603609J_Data">Data1!$D$11:$D$111</definedName>
+    <definedName name="A2603609J_Latest">Data1!$D$111</definedName>
+    <definedName name="A2603610T">Data1!$M$1:$M$10,Data1!$M$11:$M$111</definedName>
+    <definedName name="A2603610T_Data">Data1!$M$11:$M$111</definedName>
+    <definedName name="A2603610T_Latest">Data1!$M$111</definedName>
+    <definedName name="A2603611V">Data1!$V$1:$V$10,Data1!$V$11:$V$111</definedName>
+    <definedName name="A2603611V_Data">Data1!$V$11:$V$111</definedName>
+    <definedName name="A2603611V_Latest">Data1!$V$111</definedName>
+    <definedName name="A2603989W">Data1!$C$1:$C$10,Data1!$C$11:$C$111</definedName>
+    <definedName name="A2603989W_Data">Data1!$C$11:$C$111</definedName>
+    <definedName name="A2603989W_Latest">Data1!$C$111</definedName>
+    <definedName name="A2603990F">Data1!$L$1:$L$10,Data1!$L$11:$L$111</definedName>
+    <definedName name="A2603990F_Data">Data1!$L$11:$L$111</definedName>
+    <definedName name="A2603990F_Latest">Data1!$L$111</definedName>
+    <definedName name="A2603991J">Data1!$U$1:$U$10,Data1!$U$11:$U$111</definedName>
+    <definedName name="A2603991J_Data">Data1!$U$11:$U$111</definedName>
+    <definedName name="A2603991J_Latest">Data1!$U$111</definedName>
+    <definedName name="A2713846W">Data1!$E$1:$E$10,Data1!$E$11:$E$111</definedName>
+    <definedName name="A2713846W_Data">Data1!$E$11:$E$111</definedName>
+    <definedName name="A2713846W_Latest">Data1!$E$111</definedName>
+    <definedName name="A2713848A">Data1!$H$1:$H$10,Data1!$H$11:$H$111</definedName>
+    <definedName name="A2713848A_Data">Data1!$H$11:$H$111</definedName>
+    <definedName name="A2713848A_Latest">Data1!$H$111</definedName>
+    <definedName name="A2713849C">Data1!$G$1:$G$10,Data1!$G$11:$G$111</definedName>
+    <definedName name="A2713849C_Data">Data1!$G$11:$G$111</definedName>
+    <definedName name="A2713849C_Latest">Data1!$G$111</definedName>
+    <definedName name="A2713851R">Data1!$J$1:$J$10,Data1!$J$11:$J$111</definedName>
+    <definedName name="A2713851R_Data">Data1!$J$11:$J$111</definedName>
+    <definedName name="A2713851R_Latest">Data1!$J$111</definedName>
+    <definedName name="A2713852T">Data1!$F$1:$F$10,Data1!$F$11:$F$111</definedName>
+    <definedName name="A2713852T_Data">Data1!$F$11:$F$111</definedName>
+    <definedName name="A2713852T_Latest">Data1!$F$111</definedName>
+    <definedName name="A2713854W">Data1!$I$1:$I$10,Data1!$I$11:$I$111</definedName>
+    <definedName name="A2713854W_Data">Data1!$I$11:$I$111</definedName>
+    <definedName name="A2713854W_Latest">Data1!$I$111</definedName>
+    <definedName name="A83895308K">Data1!$N$1:$N$10,Data1!$N$11:$N$111</definedName>
+    <definedName name="A83895308K_Data">Data1!$N$11:$N$111</definedName>
+    <definedName name="A83895308K_Latest">Data1!$N$111</definedName>
+    <definedName name="A83895309L">Data1!$W$1:$W$10,Data1!$W$11:$W$111</definedName>
+    <definedName name="A83895309L_Data">Data1!$W$11:$W$111</definedName>
+    <definedName name="A83895309L_Latest">Data1!$W$111</definedName>
+    <definedName name="A83895311X">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$111</definedName>
+    <definedName name="A83895311X_Data">Data1!$Q$11:$Q$111</definedName>
+    <definedName name="A83895311X_Latest">Data1!$Q$111</definedName>
+    <definedName name="A83895312A">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$111</definedName>
+    <definedName name="A83895312A_Data">Data1!$Z$11:$Z$111</definedName>
+    <definedName name="A83895312A_Latest">Data1!$Z$111</definedName>
+    <definedName name="A83895332K">Data1!$O$1:$O$10,Data1!$O$11:$O$111</definedName>
+    <definedName name="A83895332K_Data">Data1!$O$11:$O$111</definedName>
+    <definedName name="A83895332K_Latest">Data1!$O$111</definedName>
+    <definedName name="A83895333L">Data1!$X$1:$X$10,Data1!$X$11:$X$111</definedName>
+    <definedName name="A83895333L_Data">Data1!$X$11:$X$111</definedName>
+    <definedName name="A83895333L_Latest">Data1!$X$111</definedName>
+    <definedName name="A83895335T">Data1!$R$1:$R$10,Data1!$R$11:$R$111</definedName>
+    <definedName name="A83895335T_Data">Data1!$R$11:$R$111</definedName>
+    <definedName name="A83895335T_Latest">Data1!$R$111</definedName>
+    <definedName name="A83895336V">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$111</definedName>
+    <definedName name="A83895336V_Data">Data1!$AA$11:$AA$111</definedName>
+    <definedName name="A83895336V_Latest">Data1!$AA$111</definedName>
+    <definedName name="A83895395V">Data1!$P$1:$P$10,Data1!$P$11:$P$111</definedName>
+    <definedName name="A83895395V_Data">Data1!$P$11:$P$111</definedName>
+    <definedName name="A83895395V_Latest">Data1!$P$111</definedName>
+    <definedName name="A83895396W">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$111</definedName>
+    <definedName name="A83895396W_Data">Data1!$Y$11:$Y$111</definedName>
+    <definedName name="A83895396W_Latest">Data1!$Y$111</definedName>
+    <definedName name="A83895398A">Data1!$S$1:$S$10,Data1!$S$11:$S$111</definedName>
+    <definedName name="A83895398A_Data">Data1!$S$11:$S$111</definedName>
+    <definedName name="A83895398A_Latest">Data1!$S$111</definedName>
+    <definedName name="A83895399C">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$111</definedName>
+    <definedName name="A83895399C_Data">Data1!$AB$11:$AB$111</definedName>
+    <definedName name="A83895399C_Latest">Data1!$AB$111</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$111</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$111</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1880,10 +1880,10 @@
         <v>35674</v>
       </c>
       <c r="G12" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H12" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>24</v>
@@ -1912,10 +1912,10 @@
         <v>35674</v>
       </c>
       <c r="G13" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H13" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>24</v>
@@ -1944,10 +1944,10 @@
         <v>35674</v>
       </c>
       <c r="G14" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H14" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>24</v>
@@ -1976,10 +1976,10 @@
         <v>35674</v>
       </c>
       <c r="G15" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H15" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>24</v>
@@ -2008,10 +2008,10 @@
         <v>35674</v>
       </c>
       <c r="G16" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H16" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>24</v>
@@ -2040,10 +2040,10 @@
         <v>35674</v>
       </c>
       <c r="G17" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H17" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>24</v>
@@ -2072,10 +2072,10 @@
         <v>35674</v>
       </c>
       <c r="G18" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H18" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>24</v>
@@ -2104,10 +2104,10 @@
         <v>35674</v>
       </c>
       <c r="G19" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H19" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>24</v>
@@ -2136,10 +2136,10 @@
         <v>35674</v>
       </c>
       <c r="G20" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H20" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>24</v>
@@ -2168,10 +2168,10 @@
         <v>35674</v>
       </c>
       <c r="G21" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H21" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>39</v>
@@ -2200,10 +2200,10 @@
         <v>35674</v>
       </c>
       <c r="G22" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H22" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>39</v>
@@ -2232,10 +2232,10 @@
         <v>35674</v>
       </c>
       <c r="G23" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H23" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>39</v>
@@ -2264,10 +2264,10 @@
         <v>35674</v>
       </c>
       <c r="G24" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H24" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>39</v>
@@ -2296,10 +2296,10 @@
         <v>35674</v>
       </c>
       <c r="G25" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H25" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>39</v>
@@ -2328,10 +2328,10 @@
         <v>35674</v>
       </c>
       <c r="G26" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H26" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>39</v>
@@ -2360,10 +2360,10 @@
         <v>35674</v>
       </c>
       <c r="G27" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H27" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>39</v>
@@ -2392,10 +2392,10 @@
         <v>35674</v>
       </c>
       <c r="G28" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H28" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>39</v>
@@ -2424,10 +2424,10 @@
         <v>35674</v>
       </c>
       <c r="G29" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H29" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>39</v>
@@ -2456,10 +2456,10 @@
         <v>35674</v>
       </c>
       <c r="G30" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H30" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>39</v>
@@ -2488,10 +2488,10 @@
         <v>35674</v>
       </c>
       <c r="G31" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H31" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>39</v>
@@ -2520,10 +2520,10 @@
         <v>35674</v>
       </c>
       <c r="G32" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H32" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>39</v>
@@ -2552,10 +2552,10 @@
         <v>35674</v>
       </c>
       <c r="G33" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H33" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>39</v>
@@ -2584,10 +2584,10 @@
         <v>35674</v>
       </c>
       <c r="G34" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H34" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>39</v>
@@ -2616,10 +2616,10 @@
         <v>35674</v>
       </c>
       <c r="G35" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H35" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>39</v>
@@ -2648,10 +2648,10 @@
         <v>35674</v>
       </c>
       <c r="G36" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H36" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>39</v>
@@ -2680,10 +2680,10 @@
         <v>35674</v>
       </c>
       <c r="G37" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H37" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>39</v>
@@ -2712,10 +2712,10 @@
         <v>35674</v>
       </c>
       <c r="G38" s="9">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H38" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>39</v>
@@ -2777,7 +2777,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB110"/>
+  <dimension ref="A1:AB111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -3395,85 +3395,85 @@
         <v>21</v>
       </c>
       <c r="B8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="C8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="D8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="E8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="F8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="G8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="H8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="I8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="J8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="K8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="L8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="M8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="N8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="O8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="P8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="Q8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="R8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="S8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="T8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="U8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="V8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="W8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="X8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="Y8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="Z8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AA8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="AB8" s="6">
-        <v>44713</v>
+        <v>44805</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
@@ -3481,85 +3481,85 @@
         <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="U9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AA9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB9" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
@@ -6932,7 +6932,7 @@
         <v>93.7</v>
       </c>
       <c r="G50" s="8">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="H50" s="8">
         <v>93.7</v>
@@ -6959,7 +6959,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="P50" s="8">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q50" s="8">
         <v>1</v>
@@ -6986,7 +6986,7 @@
         <v>4.2</v>
       </c>
       <c r="Y50" s="8">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Z50" s="8">
         <v>4</v>
@@ -7045,7 +7045,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="P51" s="8">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q51" s="8">
         <v>1.1000000000000001</v>
@@ -7330,7 +7330,7 @@
         <v>3.8</v>
       </c>
       <c r="Y54" s="8">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z54" s="8">
         <v>4.3</v>
@@ -7620,7 +7620,7 @@
         <v>101.6</v>
       </c>
       <c r="G58" s="8">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="H58" s="8">
         <v>101.2</v>
@@ -7647,7 +7647,7 @@
         <v>1</v>
       </c>
       <c r="P58" s="8">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Q58" s="8">
         <v>0.7</v>
@@ -7674,7 +7674,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Y58" s="8">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z58" s="8">
         <v>3.6</v>
@@ -7733,7 +7733,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="P59" s="8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Q59" s="8">
         <v>0.4</v>
@@ -8018,7 +8018,7 @@
         <v>4</v>
       </c>
       <c r="Y62" s="8">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Z62" s="8">
         <v>2.9</v>
@@ -10888,7 +10888,7 @@
         <v>133.6</v>
       </c>
       <c r="G96" s="8">
-        <v>130.6</v>
+        <v>130.5</v>
       </c>
       <c r="H96" s="8">
         <v>129.69999999999999</v>
@@ -10915,7 +10915,7 @@
         <v>0.7</v>
       </c>
       <c r="P96" s="8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Q96" s="8">
         <v>0.6</v>
@@ -10942,7 +10942,7 @@
         <v>2.5</v>
       </c>
       <c r="Y96" s="8">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Z96" s="8">
         <v>2.2999999999999998</v>
@@ -11286,7 +11286,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="Y100" s="8">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Z100" s="8">
         <v>2.2000000000000002</v>
@@ -11487,10 +11487,10 @@
         <v>133.4</v>
       </c>
       <c r="F103" s="8">
-        <v>138.4</v>
+        <v>138.30000000000001</v>
       </c>
       <c r="G103" s="8">
-        <v>134.6</v>
+        <v>134.5</v>
       </c>
       <c r="H103" s="8">
         <v>133.9</v>
@@ -11514,7 +11514,7 @@
         <v>0.1</v>
       </c>
       <c r="O103" s="8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P103" s="8">
         <v>0.1</v>
@@ -11600,10 +11600,10 @@
         <v>0.7</v>
       </c>
       <c r="O104" s="8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P104" s="8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Q104" s="8">
         <v>0.4</v>
@@ -11742,13 +11742,13 @@
         <v>136.5</v>
       </c>
       <c r="E106" s="8">
-        <v>135.80000000000001</v>
+        <v>135.9</v>
       </c>
       <c r="F106" s="8">
         <v>139.80000000000001</v>
       </c>
       <c r="G106" s="8">
-        <v>136.69999999999999</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="H106" s="8">
         <v>135.80000000000001</v>
@@ -11757,7 +11757,7 @@
         <v>139.9</v>
       </c>
       <c r="J106" s="8">
-        <v>136.69999999999999</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="K106" s="8">
         <v>0.3</v>
@@ -11769,13 +11769,13 @@
         <v>0.3</v>
       </c>
       <c r="N106" s="8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O106" s="8">
         <v>0.4</v>
       </c>
       <c r="P106" s="8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q106" s="8">
         <v>0.5</v>
@@ -11784,7 +11784,7 @@
         <v>0.4</v>
       </c>
       <c r="S106" s="8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="T106" s="8">
         <v>1.9</v>
@@ -11796,13 +11796,13 @@
         <v>1.8</v>
       </c>
       <c r="W106" s="8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X106" s="8">
         <v>1.3</v>
       </c>
       <c r="Y106" s="8">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z106" s="8">
         <v>1.9</v>
@@ -11811,7 +11811,7 @@
         <v>1.5</v>
       </c>
       <c r="AB106" s="8">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.2">
@@ -11828,7 +11828,7 @@
         <v>137.69999999999999</v>
       </c>
       <c r="E107" s="8">
-        <v>136.6</v>
+        <v>136.5</v>
       </c>
       <c r="F107" s="8">
         <v>140.6</v>
@@ -11855,13 +11855,13 @@
         <v>0.9</v>
       </c>
       <c r="N107" s="8">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="O107" s="8">
         <v>0.6</v>
       </c>
       <c r="P107" s="8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Q107" s="8">
         <v>0.6</v>
@@ -11870,7 +11870,7 @@
         <v>0.6</v>
       </c>
       <c r="S107" s="8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="T107" s="8">
         <v>2.2999999999999998</v>
@@ -11882,10 +11882,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="W107" s="8">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="X107" s="8">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Y107" s="8">
         <v>2.2000000000000002</v>
@@ -11923,13 +11923,13 @@
         <v>138.4</v>
       </c>
       <c r="H108" s="8">
-        <v>137.5</v>
+        <v>137.4</v>
       </c>
       <c r="I108" s="8">
         <v>141.6</v>
       </c>
       <c r="J108" s="8">
-        <v>138.4</v>
+        <v>138.30000000000001</v>
       </c>
       <c r="K108" s="8">
         <v>0.6</v>
@@ -11950,13 +11950,13 @@
         <v>0.7</v>
       </c>
       <c r="Q108" s="8">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="R108" s="8">
         <v>0.6</v>
       </c>
       <c r="S108" s="8">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="T108" s="8">
         <v>2.4</v>
@@ -11983,7 +11983,7 @@
         <v>2</v>
       </c>
       <c r="AB108" s="8">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.2">
@@ -12009,13 +12009,13 @@
         <v>139.30000000000001</v>
       </c>
       <c r="H109" s="8">
-        <v>138.4</v>
+        <v>138.5</v>
       </c>
       <c r="I109" s="8">
         <v>142.4</v>
       </c>
       <c r="J109" s="8">
-        <v>139.30000000000001</v>
+        <v>139.4</v>
       </c>
       <c r="K109" s="8">
         <v>0.5</v>
@@ -12036,13 +12036,13 @@
         <v>0.7</v>
       </c>
       <c r="Q109" s="8">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="R109" s="8">
         <v>0.6</v>
       </c>
       <c r="S109" s="8">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="T109" s="8">
         <v>2.4</v>
@@ -12063,13 +12063,13 @@
         <v>2.4</v>
       </c>
       <c r="Z109" s="8">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AA109" s="8">
         <v>2.2000000000000002</v>
       </c>
       <c r="AB109" s="8">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.2">
@@ -12086,22 +12086,22 @@
         <v>140.1</v>
       </c>
       <c r="E110" s="8">
-        <v>139.4</v>
+        <v>139.5</v>
       </c>
       <c r="F110" s="8">
         <v>143.19999999999999</v>
       </c>
       <c r="G110" s="8">
-        <v>140.30000000000001</v>
+        <v>140.4</v>
       </c>
       <c r="H110" s="8">
-        <v>139.4</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="I110" s="8">
         <v>143.19999999999999</v>
       </c>
       <c r="J110" s="8">
-        <v>140.19999999999999</v>
+        <v>140.5</v>
       </c>
       <c r="K110" s="8">
         <v>0.7</v>
@@ -12113,22 +12113,22 @@
         <v>0.6</v>
       </c>
       <c r="N110" s="8">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="O110" s="8">
         <v>0.6</v>
       </c>
       <c r="P110" s="8">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Q110" s="8">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="R110" s="8">
         <v>0.6</v>
       </c>
       <c r="S110" s="8">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="T110" s="8">
         <v>2.7</v>
@@ -12140,7 +12140,7 @@
         <v>2.6</v>
       </c>
       <c r="W110" s="8">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="X110" s="8">
         <v>2.4</v>
@@ -12149,13 +12149,99 @@
         <v>2.6</v>
       </c>
       <c r="Z110" s="8">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AA110" s="8">
         <v>2.4</v>
       </c>
       <c r="AB110" s="8">
-        <v>2.6</v>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A111" s="9">
+        <v>44805</v>
+      </c>
+      <c r="B111" s="8">
+        <v>141.5</v>
+      </c>
+      <c r="C111" s="8">
+        <v>144</v>
+      </c>
+      <c r="D111" s="8">
+        <v>142.1</v>
+      </c>
+      <c r="E111" s="8">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="F111" s="8">
+        <v>144</v>
+      </c>
+      <c r="G111" s="8">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="H111" s="8">
+        <v>141</v>
+      </c>
+      <c r="I111" s="8">
+        <v>144</v>
+      </c>
+      <c r="J111" s="8">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="K111" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="L111" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="M111" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="N111" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="O111" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="P111" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="R111" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="S111" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="T111" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="U111" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V111" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="W111" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="X111" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="Y111" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="Z111" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="AA111" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AB111" s="8">
+        <v>3.1</v>
       </c>
     </row>
   </sheetData>
